--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AF00F1-1418-4646-97C2-61A650C20D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42548E99-8761-4BBC-A173-0C7EC2E5478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="1230" windowWidth="13860" windowHeight="12555" firstSheet="4" activeTab="7" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="10140" yWindow="1635" windowWidth="13860" windowHeight="12555" firstSheet="5" activeTab="7" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="양식" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="002020_2" sheetId="12" r:id="rId6"/>
     <sheet name="002030_1" sheetId="10" r:id="rId7"/>
     <sheet name="002030_2" sheetId="11" r:id="rId8"/>
+    <sheet name="002030_3" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="90">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +374,9 @@
   <si>
     <t>평생 이러고 살아가는 것보다 도망치는게 나을 거야. 지금 당장 벗어나겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002030_3</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1943,126 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1951,7 +2074,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2004,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -2018,23 +2141,9 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897D1858-D64E-4467-89E6-D7ED67BD6751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C47FEB-1018-41CE-BB8C-D2D745F610F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5A1843CC-AF0D-4CD1-A013-CAFD0BA067E4}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6A5346C2-1CF3-44CC-857B-A42B740387A4}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,9 @@
 6: Panic
 7: Suspicion
 8: Fear
-9: Curious</t>
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
         </r>
       </text>
     </comment>
@@ -394,10 +396,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,11 +694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -848,15 +846,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1181,7 +1180,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1190,7 +1188,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1333,7 +1331,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1463,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1595,7 +1593,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1725,7 +1723,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1843,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C47FEB-1018-41CE-BB8C-D2D745F610F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AD6D2-A23C-4788-B928-27B0E362A9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
-    <sheet name="001010" sheetId="2" r:id="rId1"/>
-    <sheet name="002010_1" sheetId="13" r:id="rId2"/>
-    <sheet name="002010_2" sheetId="8" r:id="rId3"/>
-    <sheet name="002020_1" sheetId="9" r:id="rId4"/>
-    <sheet name="002020_2" sheetId="12" r:id="rId5"/>
-    <sheet name="002030_1" sheetId="10" r:id="rId6"/>
-    <sheet name="002030_2" sheetId="11" r:id="rId7"/>
-    <sheet name="002030_3" sheetId="14" r:id="rId8"/>
+    <sheet name="001010_task" sheetId="15" r:id="rId1"/>
+    <sheet name="001010" sheetId="2" r:id="rId2"/>
+    <sheet name="002010_task" sheetId="16" r:id="rId3"/>
+    <sheet name="002010_1" sheetId="13" r:id="rId4"/>
+    <sheet name="002010_2" sheetId="8" r:id="rId5"/>
+    <sheet name="002020_1" sheetId="9" r:id="rId6"/>
+    <sheet name="002020_2" sheetId="12" r:id="rId7"/>
+    <sheet name="002030_1" sheetId="10" r:id="rId8"/>
+    <sheet name="002030_2" sheetId="11" r:id="rId9"/>
+    <sheet name="002030_3" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,6 +45,218 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0635A36E-2569-4A95-84DF-D18FC1E97A84}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{CA48538B-F22D-4F10-9208-1754AC8228A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>User</author>
   </authors>
   <commentList>
@@ -75,8 +289,220 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{FC9451EA-F284-42B5-BCF0-CE30D9209E78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{0DC6DC9A-5A25-4D38-9846-9FA1CD803999}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +741,94 @@
   </si>
   <si>
     <t>Speat_past</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름(큰 의미 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 번호 (동시 실행)</t>
+  </si>
+  <si>
+    <t>조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increaseVar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우대화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001010_task</t>
+  </si>
+  <si>
+    <t>dialogue_ep0/001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_task</t>
+  </si>
+  <si>
+    <t>taskContentType</t>
+  </si>
+  <si>
+    <t>enum:TaskContentType:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +839,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +861,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -694,152 +1216,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5758A-1D28-44D1-8BD9-0B570A3B0E24}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -850,7 +1352,442 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D28CD64-A0F2-4C1A-95CD-2A75FA319E90}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -858,19 +1795,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.625" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -884,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -898,7 +1835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -912,7 +1849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -926,7 +1863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -940,7 +1877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -954,7 +1891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -968,7 +1905,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -982,7 +1919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -996,7 +1933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1010,7 +1947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1038,7 +1975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1989,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1066,7 +2003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1074,7 +2011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>0</v>
       </c>
@@ -1082,7 +2019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1096,7 +2033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1110,7 +2047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>0</v>
       </c>
@@ -1118,7 +2055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>0</v>
       </c>
@@ -1126,7 +2063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1140,7 +2077,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1154,7 +2091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>0</v>
       </c>
@@ -1162,7 +2099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1175,281 +2112,6 @@
       <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="53.375" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D8B40-A471-417D-A811-DD055E62FB38}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1459,26 +2121,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0410B-99B7-4713-80E6-B6B994BDC0E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +2154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +2168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1520,65 +2182,78 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1589,26 +2264,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D8B40-A471-417D-A811-DD055E62FB38}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +2297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1636,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1650,65 +2325,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1719,26 +2396,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0410B-99B7-4713-80E6-B6B994BDC0E7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1752,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1780,54 +2457,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1838,26 +2526,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1871,7 +2559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1885,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1899,62 +2587,184 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472AD6D2-A23C-4788-B928-27B0E362A9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE356EF7-279B-4CBF-B0CB-29DDE067E80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="8" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
     <sheet name="001010" sheetId="2" r:id="rId2"/>
     <sheet name="002010_task" sheetId="16" r:id="rId3"/>
-    <sheet name="002010_1" sheetId="13" r:id="rId4"/>
-    <sheet name="002010_2" sheetId="8" r:id="rId5"/>
-    <sheet name="002020_1" sheetId="9" r:id="rId6"/>
-    <sheet name="002020_2" sheetId="12" r:id="rId7"/>
-    <sheet name="002030_1" sheetId="10" r:id="rId8"/>
-    <sheet name="002030_2" sheetId="11" r:id="rId9"/>
-    <sheet name="002030_3" sheetId="14" r:id="rId10"/>
+    <sheet name="002010" sheetId="13" r:id="rId4"/>
+    <sheet name="002011_task" sheetId="17" r:id="rId5"/>
+    <sheet name="002011" sheetId="8" r:id="rId6"/>
+    <sheet name="002020_1" sheetId="9" r:id="rId7"/>
+    <sheet name="002020_2" sheetId="12" r:id="rId8"/>
+    <sheet name="002030_1" sheetId="10" r:id="rId9"/>
+    <sheet name="002030_2" sheetId="11" r:id="rId10"/>
+    <sheet name="002030_3" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -501,8 +502,220 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E1954F47-6EE0-4021-B84B-8F0940825C54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{736FCAF6-13BC-45AA-BF81-9D755C389026}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="90">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,13 +852,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002010_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_1</t>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -814,14 +1020,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogue_ep0/002010_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002010_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002010_task</t>
   </si>
   <si>
@@ -830,6 +1028,27 @@
   <si>
     <t>enum:TaskContentType:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002011_task</t>
+  </si>
+  <si>
+    <t>dialogue_ep0/002011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏대화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010</t>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002011</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5758A-1D28-44D1-8BD9-0B570A3B0E24}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1232,30 +1451,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1263,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -1280,22 +1499,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1308,13 +1527,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1353,6 +1572,125 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1369,7 +1707,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1380,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1408,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1422,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -1436,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -1507,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1535,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1549,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -1563,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -1577,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1641,42 +1979,43 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="60.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1684,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -1701,22 +2040,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1729,30 +2068,21 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1792,7 +2122,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1804,7 +2134,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1815,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1843,7 +2173,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1857,10 +2187,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -1871,10 +2201,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1885,10 +2215,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1899,10 +2229,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1913,10 +2243,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -1927,10 +2257,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1941,10 +2271,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -1955,10 +2285,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -1969,10 +2299,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1983,10 +2313,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1997,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -2008,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -2016,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -2027,10 +2357,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -2041,10 +2371,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -2052,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -2060,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -2071,10 +2401,10 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -2085,10 +2415,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -2096,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -2107,10 +2437,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2121,11 +2451,146 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A43CE3-48F8-4708-B4B5-15D6727D3864}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2137,7 +2602,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2148,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2176,7 +2641,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2190,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -2204,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -2218,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -2263,12 +2728,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D8B40-A471-417D-A811-DD055E62FB38}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2291,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2319,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2344,7 +2809,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -2395,12 +2860,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0410B-99B7-4713-80E6-B6B994BDC0E7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2423,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2451,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2465,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -2479,7 +2944,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>33</v>
@@ -2525,12 +2990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2553,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2581,7 +3046,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2595,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -2609,7 +3074,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
@@ -2617,125 +3082,6 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE356EF7-279B-4CBF-B0CB-29DDE067E80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09749E00-347E-445F-977E-142CCFD42A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="8" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -1442,14 +1442,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>11</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -1539,28 +1539,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1579,19 +1579,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1647,40 +1647,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1698,19 +1698,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.296875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1780,34 +1780,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1825,19 +1825,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>0</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>0</v>
       </c>
@@ -1945,25 +1945,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1979,18 +1979,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>11</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -2080,33 +2080,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2125,19 +2128,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="67.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>0</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>0</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>0</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>0</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2454,19 +2457,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A43CE3-48F8-4708-B4B5-15D6727D3864}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2534,12 +2537,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -2553,28 +2559,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2593,19 +2599,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="53.296875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2661,7 +2667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2689,7 +2695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2697,28 +2703,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2736,19 +2742,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.296875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>0</v>
       </c>
@@ -2823,34 +2829,34 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2868,19 +2874,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.296875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2936,7 +2942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2950,37 +2956,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2994,23 +3000,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.296875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3038,7 +3044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +3058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3080,37 +3086,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09749E00-347E-445F-977E-142CCFD42A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801D17D-1DCA-4763-8CDE-1B1825AADE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="10" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -989,10 +989,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nextFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1049,6 +1045,10 @@
   </si>
   <si>
     <t>002011</t>
+  </si>
+  <si>
+    <t>taskContentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1089,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1112,7 +1121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,6 +1129,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1439,25 +1451,25 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1477,12 +1489,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1497,27 +1509,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>11</v>
       </c>
@@ -1525,42 +1537,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1579,19 +1591,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1605,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1647,40 +1659,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1694,23 +1706,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.296875" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1780,34 +1792,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1825,19 +1837,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +1919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1921,7 +1933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -1929,7 +1941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0</v>
       </c>
@@ -1945,25 +1957,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1979,26 +1991,26 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" customWidth="1"/>
-    <col min="4" max="4" width="60.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2018,7 +2030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2038,27 +2050,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
       <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>11</v>
       </c>
@@ -2066,21 +2078,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10</v>
       </c>
@@ -2088,28 +2100,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2128,19 +2140,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="67.625" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2224,7 +2236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2238,7 +2250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2252,7 +2264,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2266,7 +2278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2280,7 +2292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2322,7 +2334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>0</v>
       </c>
@@ -2352,7 +2364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2366,7 +2378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2380,7 +2392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>0</v>
       </c>
@@ -2388,7 +2400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2410,7 +2422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2424,7 +2436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2457,27 +2469,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A43CE3-48F8-4708-B4B5-15D6727D3864}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" customWidth="1"/>
-    <col min="4" max="4" width="60.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2517,27 +2529,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
       <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>9</v>
       </c>
@@ -2545,42 +2557,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2599,19 +2611,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="53.296875" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="53.25" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2625,7 +2637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2639,7 +2651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +2665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2667,7 +2679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2681,7 +2693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2695,7 +2707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2703,28 +2715,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2742,19 +2755,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.296875" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2768,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2782,7 +2795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2796,7 +2809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2807,7 +2820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2821,7 +2834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0</v>
       </c>
@@ -2829,34 +2842,34 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2874,19 +2887,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.296875" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2900,7 +2913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2914,7 +2927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2928,7 +2941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2942,7 +2955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2956,37 +2969,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -3001,22 +3014,22 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.296875" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3030,7 +3043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3044,7 +3057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3058,7 +3071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3072,7 +3085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3086,37 +3099,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -5,25 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801D17D-1DCA-4763-8CDE-1B1825AADE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4536E17-D4B3-4B37-A867-1E9E2AD8A677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="10" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
     <sheet name="001010" sheetId="2" r:id="rId2"/>
     <sheet name="002010_task" sheetId="16" r:id="rId3"/>
-    <sheet name="002010" sheetId="13" r:id="rId4"/>
-    <sheet name="002011_task" sheetId="17" r:id="rId5"/>
-    <sheet name="002011" sheetId="8" r:id="rId6"/>
-    <sheet name="002020_1" sheetId="9" r:id="rId7"/>
-    <sheet name="002020_2" sheetId="12" r:id="rId8"/>
-    <sheet name="002030_1" sheetId="10" r:id="rId9"/>
-    <sheet name="002030_2" sheetId="11" r:id="rId10"/>
-    <sheet name="002030_3" sheetId="14" r:id="rId11"/>
+    <sheet name="002010_1" sheetId="13" r:id="rId4"/>
+    <sheet name="002010_2" sheetId="18" r:id="rId5"/>
+    <sheet name="002010_3" sheetId="20" r:id="rId6"/>
+    <sheet name="002010_4" sheetId="19" r:id="rId7"/>
+    <sheet name="002011_task" sheetId="17" r:id="rId8"/>
+    <sheet name="002011" sheetId="8" r:id="rId9"/>
+    <sheet name="002020_1" sheetId="9" r:id="rId10"/>
+    <sheet name="002020_2" sheetId="12" r:id="rId11"/>
+    <sheet name="002030_1" sheetId="10" r:id="rId12"/>
+    <sheet name="002030_2" sheetId="11" r:id="rId13"/>
+    <sheet name="002030_3" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -715,7 +718,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="95">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,17 +1040,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002010</t>
-  </si>
-  <si>
-    <t>dialogue_ep0/002010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002011</t>
   </si>
   <si>
     <t>taskContentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1454,14 +1478,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1469,7 +1493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1489,7 +1513,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1509,12 +1533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
@@ -1529,7 +1553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>11</v>
       </c>
@@ -1537,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1551,28 +1575,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1584,26 +1608,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D8B40-A471-417D-A811-DD055E62FB38}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1645,54 +1669,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1703,26 +1740,405 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0410B-99B7-4713-80E6-B6B994BDC0E7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1736,7 +2152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +2180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1778,7 +2194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1792,34 +2208,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1837,19 +2253,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1863,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +2293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1891,7 +2307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1905,7 +2321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +2335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1933,7 +2349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0</v>
       </c>
@@ -1941,7 +2357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>0</v>
       </c>
@@ -1949,7 +2365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>0</v>
       </c>
@@ -1957,25 +2373,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1991,18 +2407,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2010,7 +2426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2030,7 +2446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2070,7 +2486,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>11</v>
       </c>
@@ -2078,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -2086,42 +2502,67 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
       <c r="B7">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2137,22 +2578,22 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.625" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2166,7 +2607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2180,7 +2621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2194,7 +2635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2208,7 +2649,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2222,7 +2663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2236,7 +2677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2250,7 +2691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2264,7 +2705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2278,7 +2719,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2292,7 +2733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2306,7 +2747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2320,7 +2761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2334,7 +2775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2348,115 +2789,35 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2466,6 +2827,395 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBB5E16-BCE6-4837-83A8-0CF0F194DEC5}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="B6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763C6AD6-BD53-4A91-9599-1C1F04A4CE02}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077CF1A1-B125-4313-8C26-BD33FD49CDA4}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A43CE3-48F8-4708-B4B5-15D6727D3864}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -2473,15 +3223,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -2489,7 +3239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2509,7 +3259,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -2549,7 +3299,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>9</v>
       </c>
@@ -2557,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -2571,28 +3321,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2603,7 +3353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2611,19 +3361,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="53.25" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2637,7 +3387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2651,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +3415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2679,7 +3429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2693,7 +3443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2707,7 +3457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2715,421 +3465,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D8B40-A471-417D-A811-DD055E62FB38}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0410B-99B7-4713-80E6-B6B994BDC0E7}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4536E17-D4B3-4B37-A867-1E9E2AD8A677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F7040F-D442-4B31-834B-FEDB93879E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -322,7 +322,8 @@
 FadeIn = 9
 FadeOut=10
 Cinematic = 11
-EndingChoice=12</t>
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -718,7 +719,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1072,6 +1073,18 @@
   </si>
   <si>
     <t>002010_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2122,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2208,16 +2221,31 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -2249,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2407,7 +2435,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2471,7 +2499,7 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
@@ -2562,7 +2590,10 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F7040F-D442-4B31-834B-FEDB93879E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFC2B17-DB23-4A67-91C6-616F91C5BB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -2277,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2434,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D28CD64-A0F2-4C1A-95CD-2A75FA319E90}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFC2B17-DB23-4A67-91C6-616F91C5BB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D987C1-90DD-4C7A-8EFC-1D86C3E476D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -322,8 +322,7 @@
 FadeIn = 9
 FadeOut=10
 Cinematic = 11
-EndingChoice=12
-Clear = 13</t>
+EndingChoice=12</t>
         </r>
       </text>
     </comment>
@@ -981,10 +980,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum:TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,78 +1008,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dialogue_ep0/001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
+  </si>
+  <si>
+    <t>enum:TaskContentType:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏대화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002011</t>
+  </si>
+  <si>
+    <t>taskContentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:TaskContentType:NONE</t>
+  </si>
+  <si>
+    <t>002011_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>001010_task</t>
-  </si>
-  <si>
-    <t>dialogue_ep0/001010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_task</t>
-  </si>
-  <si>
-    <t>taskContentType</t>
-  </si>
-  <si>
-    <t>enum:TaskContentType:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002011_task</t>
-  </si>
-  <si>
-    <t>dialogue_ep0/002011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏대화1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002011</t>
-  </si>
-  <si>
-    <t>taskContentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002010_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002010_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002010_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1488,19 +1489,21 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="22.58203125" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="60.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
@@ -1531,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -1548,22 +1551,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1576,13 +1579,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2136,7 +2139,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2223,13 +2226,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -2435,12 +2438,13 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="60.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
@@ -2448,7 +2452,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
@@ -2479,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -2496,22 +2500,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -2524,13 +2528,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2538,13 +2542,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2552,13 +2556,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2592,7 +2596,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -2621,7 +2625,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2874,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2981,7 +2985,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3085,7 +3089,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3251,7 +3255,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3264,7 +3268,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
@@ -3295,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -3312,22 +3316,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -3340,13 +3344,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3401,7 +3405,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D987C1-90DD-4C7A-8EFC-1D86C3E476D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F9FC0-2D99-497A-A370-3262560CA60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -718,7 +718,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="97">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1067,10 +1067,6 @@
   </si>
   <si>
     <t>camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1503,7 +1499,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
@@ -2438,7 +2434,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2452,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
@@ -2594,10 +2590,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
-        <v>93</v>
-      </c>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -3268,7 +3261,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
@@ -3299,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F9FC0-2D99-497A-A370-3262560CA60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F676D-5990-4F2C-9BC9-170CCB22A5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="002020_2" sheetId="12" r:id="rId11"/>
     <sheet name="002030_1" sheetId="10" r:id="rId12"/>
     <sheet name="002030_2" sheetId="11" r:id="rId13"/>
-    <sheet name="002030_3" sheetId="14" r:id="rId14"/>
+    <sheet name="002030_3_task" sheetId="22" r:id="rId14"/>
+    <sheet name="002030_3" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -717,8 +718,220 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3DD853C8-EF8F-41D5-AFB3-A098A68DD93A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C532427A-AC82-4266-A7DB-C436EEDFE314}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="99">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -935,153 +1148,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>anim_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이터 이름</t>
+  </si>
+  <si>
+    <t>Rau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speat_past</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름(큰 의미 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 번호 (동시 실행)</t>
+  </si>
+  <si>
+    <t>조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increaseVar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우대화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
+  </si>
+  <si>
+    <t>enum:TaskContentType:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏대화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002011</t>
+  </si>
+  <si>
+    <t>taskContentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002010_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:TaskContentType:NONE</t>
+  </si>
+  <si>
+    <t>002011_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002010_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001010_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>002030_3</t>
-  </si>
-  <si>
-    <t>anim_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이터 이름</t>
-  </si>
-  <si>
-    <t>Rau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speat_past</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choice 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름(큰 의미 없음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실행 번호 (동시 실행)</t>
-  </si>
-  <si>
-    <t>조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변화 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>increaseVar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우대화1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/001010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskContentType</t>
-  </si>
-  <si>
-    <t>enum:TaskContentType:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏대화1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002011</t>
-  </si>
-  <si>
-    <t>taskContentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002010_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002010_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002010_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:TaskContentType:NONE</t>
-  </si>
-  <si>
-    <t>002011_task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002010_task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001010_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep0/002030_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002030_3_task</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1484,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5758A-1D28-44D1-8BD9-0B570A3B0E24}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1499,30 +1721,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1530,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -1547,22 +1769,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1575,13 +1797,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1647,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1675,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1700,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -1779,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1807,7 +2029,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1821,7 +2043,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -1835,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>33</v>
@@ -1909,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1937,7 +2159,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1951,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -1965,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
@@ -2016,7 +2238,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2039,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2067,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2081,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -2131,12 +2353,156 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF5D3A-0E1E-4C46-9D07-F45230D15113}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2147,7 +2513,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2158,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2186,7 +2552,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2200,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -2214,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -2222,13 +2588,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -2300,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2328,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2342,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -2356,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -2370,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -2433,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D28CD64-A0F2-4C1A-95CD-2A75FA319E90}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2448,30 +2814,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -2479,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -2496,22 +2862,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -2524,13 +2890,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2538,13 +2904,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2552,13 +2918,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2567,6 +2933,9 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -2618,7 +2987,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2629,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2657,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2671,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
@@ -2685,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>39</v>
@@ -2699,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>40</v>
@@ -2713,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
@@ -2727,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>44</v>
@@ -2741,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
@@ -2755,7 +3124,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>42</v>
@@ -2769,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>43</v>
@@ -2783,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
@@ -2797,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>46</v>
@@ -2811,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>47</v>
@@ -2871,7 +3240,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2882,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2910,7 +3279,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2978,7 +3347,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2989,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3017,7 +3386,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3070,7 +3439,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3082,7 +3451,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3093,7 +3462,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3121,7 +3490,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3135,7 +3504,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
@@ -3149,7 +3518,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
@@ -3179,7 +3548,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>54</v>
@@ -3193,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
@@ -3215,7 +3584,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>57</v>
@@ -3261,30 +3630,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -3292,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -3309,22 +3678,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -3337,13 +3706,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3398,7 +3767,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3409,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3437,7 +3806,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3451,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -3465,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -3479,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F676D-5990-4F2C-9BC9-170CCB22A5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C29EF-4BD2-4850-85CD-493A5B1BC35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="5" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="95">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1252,18 +1252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogue_ep0/002010_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002010_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002010_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002010_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1296,10 +1284,6 @@
   </si>
   <si>
     <t>002030_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep0/002030_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1706,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5758A-1D28-44D1-8BD9-0B570A3B0E24}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1721,7 +1705,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
@@ -2356,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF5D3A-0E1E-4C46-9D07-F45230D15113}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2370,7 +2354,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
@@ -2401,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2445,14 +2429,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2513,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2588,13 +2566,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -2800,7 +2778,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2814,7 +2792,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
@@ -2889,52 +2867,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="D9">
         <v>1</v>
       </c>
     </row>
@@ -3347,7 +3283,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3451,7 +3387,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3617,7 +3553,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3630,7 +3566,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
@@ -3661,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C29EF-4BD2-4850-85CD-493A5B1BC35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC05700-346C-489E-BD11-5BBD8AA84556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="5" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -1694,16 +1694,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.58203125" customWidth="1"/>
-    <col min="2" max="2" width="28.58203125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>11</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1793,28 +1793,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1833,19 +1833,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1920,34 +1920,34 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1965,19 +1965,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2047,37 +2047,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2095,19 +2095,19 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2177,37 +2177,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2225,19 +2225,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2293,40 +2293,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2341,18 +2341,18 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>9</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>11</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>10</v>
       </c>
@@ -2444,28 +2444,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2482,19 +2490,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2508,7 +2516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2536,7 +2544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2550,7 +2558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2564,7 +2572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -2575,38 +2583,38 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2624,19 +2632,19 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2664,7 +2672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2678,7 +2686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2692,7 +2700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2720,7 +2728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2728,7 +2736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>0</v>
       </c>
@@ -2736,7 +2744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>0</v>
       </c>
@@ -2744,25 +2752,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2778,19 +2786,19 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -2798,7 +2806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2818,7 +2826,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2838,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2858,7 +2866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>11</v>
       </c>
@@ -2866,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>10</v>
       </c>
@@ -2874,28 +2882,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2914,19 +2930,19 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="67.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2940,7 +2956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2954,7 +2970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2968,7 +2984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2982,7 +2998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2996,7 +3012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3010,7 +3026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3024,7 +3040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3038,7 +3054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3052,7 +3068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3066,7 +3082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3080,7 +3096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3094,7 +3110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3108,7 +3124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3122,34 +3138,34 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D25" s="1"/>
     </row>
   </sheetData>
@@ -3167,19 +3183,19 @@
       <selection activeCell="D6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="67.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3193,7 +3209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3207,7 +3223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3221,7 +3237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>0</v>
       </c>
@@ -3229,34 +3245,34 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D15" s="1"/>
     </row>
   </sheetData>
@@ -3274,19 +3290,19 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="67.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3300,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3314,7 +3330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>0</v>
       </c>
@@ -3336,31 +3352,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D15" s="1"/>
     </row>
   </sheetData>
@@ -3378,19 +3394,19 @@
       <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="67.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3404,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3418,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3432,7 +3448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3446,7 +3462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3460,7 +3476,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>0</v>
       </c>
@@ -3468,7 +3484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0</v>
       </c>
@@ -3476,7 +3492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3490,7 +3506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3504,7 +3520,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>0</v>
       </c>
@@ -3512,7 +3528,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3526,19 +3542,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -3556,15 +3572,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="60.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -3572,7 +3588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3592,7 +3608,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3612,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3632,7 +3648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>9</v>
       </c>
@@ -3640,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3654,28 +3670,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -3694,19 +3710,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="53.25" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="53.19921875" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3720,7 +3736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3734,7 +3750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3748,7 +3764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3762,7 +3778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3776,7 +3792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3790,7 +3806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0</v>
       </c>
@@ -3798,29 +3814,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC05700-346C-489E-BD11-5BBD8AA84556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A4E35-5A3E-4B5C-85EB-BA7539FFEF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="14" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -323,7 +323,8 @@
 FadeIn = 9
 FadeOut=10
 Cinematic = 11
-EndingChoice=12</t>
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -2340,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF5D3A-0E1E-4C46-9D07-F45230D15113}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2488,7 +2489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2786,16 +2789,17 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" customWidth="1"/>
-    <col min="4" max="4" width="60.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -3569,7 +3573,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A4E35-5A3E-4B5C-85EB-BA7539FFEF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC6693-C76D-4141-A1B1-622B9DCB9A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="14" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="2940" yWindow="1940" windowWidth="13460" windowHeight="10060" firstSheet="1" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -536,7 +536,8 @@
 FadeIn = 9
 FadeOut=10
 Cinematic = 11
-EndingChoice=12</t>
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -748,7 +749,8 @@
 FadeIn = 9
 FadeOut=10
 Cinematic = 11
-EndingChoice=12</t>
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -932,7 +934,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="97">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1160,10 +1162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speat_past</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>choice 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1289,6 +1287,17 @@
   </si>
   <si>
     <t>002030_3_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speat_Adult</t>
+  </si>
+  <si>
+    <t>Speat_Adult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Citizen_M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1695,84 +1704,84 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="1" max="1" width="22.58203125" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>11</v>
       </c>
@@ -1780,42 +1789,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1831,22 +1840,22 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.19921875" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1860,7 +1869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1888,32 +1897,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1921,34 +1933,34 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1963,22 +1975,22 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.19921875" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1992,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2006,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2020,65 +2032,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2093,22 +2099,22 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.19921875" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2158,57 +2164,57 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2223,22 +2229,22 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2288,46 +2294,46 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2342,139 +2348,123 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" customWidth="1"/>
-    <col min="4" max="4" width="60.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2489,23 +2479,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.19921875" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2519,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2533,7 +2523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2547,21 +2537,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2569,55 +2559,55 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2632,22 +2622,22 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="60.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2661,7 +2651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2675,7 +2665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2689,7 +2679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2703,7 +2693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2717,7 +2707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2731,7 +2721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2739,7 +2729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>0</v>
       </c>
@@ -2747,7 +2737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>0</v>
       </c>
@@ -2755,25 +2745,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2789,88 +2779,88 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
-    <col min="2" max="2" width="28.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" customWidth="1"/>
-    <col min="4" max="4" width="19.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.58203125" customWidth="1"/>
+    <col min="2" max="2" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.08203125" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" customWidth="1"/>
+    <col min="6" max="6" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>11</v>
       </c>
@@ -2878,44 +2868,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -2930,23 +2912,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2960,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2974,7 +2956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2988,63 +2970,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3052,13 +3034,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3066,13 +3048,13 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3080,13 +3062,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3094,82 +3076,82 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D25" s="1"/>
     </row>
   </sheetData>
@@ -3184,22 +3166,22 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="B6:D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3213,7 +3195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3227,7 +3209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3241,42 +3223,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1"/>
     </row>
   </sheetData>
@@ -3291,22 +3276,22 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3320,7 +3305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3334,7 +3319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3348,39 +3333,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1"/>
     </row>
   </sheetData>
@@ -3395,22 +3383,22 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3424,7 +3412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3438,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3452,65 +3440,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>0</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3518,47 +3500,44 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -3573,129 +3552,121 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.19921875" customWidth="1"/>
-    <col min="4" max="4" width="60.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
       <c r="B5">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -3711,22 +3682,22 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="53.19921875" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="53.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3740,7 +3711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3754,7 +3725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3768,49 +3739,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0</v>
       </c>
@@ -3818,29 +3789,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC6693-C76D-4141-A1B1-622B9DCB9A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4984DD24-6883-4406-87A5-667B3FEB1C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1940" windowWidth="13460" windowHeight="10060" firstSheet="1" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="5" activeTab="14" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -1701,7 +1701,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2479,7 +2479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2622,7 +2622,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2912,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3276,7 +3276,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>95</v>
@@ -3383,7 +3383,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3445,7 +3445,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
@@ -3459,7 +3459,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>94</v>
@@ -3483,7 +3483,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>94</v>
@@ -3682,7 +3682,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4984DD24-6883-4406-87A5-667B3FEB1C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE088800-E5A4-482E-89E9-ED8238EFDF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="5" activeTab="14" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
     <sheet name="001010" sheetId="2" r:id="rId2"/>
-    <sheet name="002010_task" sheetId="16" r:id="rId3"/>
-    <sheet name="002010_1" sheetId="13" r:id="rId4"/>
-    <sheet name="002010_2" sheetId="18" r:id="rId5"/>
-    <sheet name="002010_3" sheetId="20" r:id="rId6"/>
-    <sheet name="002010_4" sheetId="19" r:id="rId7"/>
-    <sheet name="002011_task" sheetId="17" r:id="rId8"/>
-    <sheet name="002011" sheetId="8" r:id="rId9"/>
-    <sheet name="002020_1" sheetId="9" r:id="rId10"/>
-    <sheet name="002020_2" sheetId="12" r:id="rId11"/>
-    <sheet name="002030_1" sheetId="10" r:id="rId12"/>
-    <sheet name="002030_2" sheetId="11" r:id="rId13"/>
-    <sheet name="002030_3_task" sheetId="22" r:id="rId14"/>
-    <sheet name="002030_3" sheetId="14" r:id="rId15"/>
+    <sheet name="001010_1" sheetId="23" r:id="rId3"/>
+    <sheet name="002010_task" sheetId="16" r:id="rId4"/>
+    <sheet name="002010_1" sheetId="13" r:id="rId5"/>
+    <sheet name="002010_2" sheetId="18" r:id="rId6"/>
+    <sheet name="002010_3" sheetId="20" r:id="rId7"/>
+    <sheet name="002010_4" sheetId="19" r:id="rId8"/>
+    <sheet name="002011_task" sheetId="17" r:id="rId9"/>
+    <sheet name="002011" sheetId="8" r:id="rId10"/>
+    <sheet name="002020_1" sheetId="9" r:id="rId11"/>
+    <sheet name="002020_2" sheetId="12" r:id="rId12"/>
+    <sheet name="002030_1" sheetId="10" r:id="rId13"/>
+    <sheet name="002030_2" sheetId="11" r:id="rId14"/>
+    <sheet name="002030_3_task" sheetId="22" r:id="rId15"/>
+    <sheet name="002030_3" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -297,6 +298,41 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{8561F5F0-3F88-4D82-9FA1-6B37108672F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>최선</author>
     <author>훠이</author>
   </authors>
@@ -507,7 +543,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -720,7 +756,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -934,7 +970,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="102">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1298,6 +1334,25 @@
   </si>
   <si>
     <t>NPC_Citizen_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으악...건너기에 돌과 돌 사이가 멀잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001010_1</t>
+  </si>
+  <si>
+    <t>어떻게 해야 되지...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음? 이 나무 뭔가 쓰러뜨리면 다리로 삼아서 건널 수 있을 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약해 보이는데... 한 번 차볼까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1701,7 +1756,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1836,6 +1891,150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="53.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D8B40-A471-417D-A811-DD055E62FB38}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1970,7 +2169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0410B-99B7-4713-80E6-B6B994BDC0E7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2094,7 +2293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2224,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2343,7 +2542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF5D3A-0E1E-4C46-9D07-F45230D15113}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -2475,11 +2674,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2775,6 +2974,159 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD7F9D-E604-418C-872C-0DB84D357BEB}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D28CD64-A0F2-4C1A-95CD-2A75FA319E90}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -2908,7 +3260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -3161,7 +3513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBB5E16-BCE6-4837-83A8-0CF0F194DEC5}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3271,7 +3623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763C6AD6-BD53-4A91-9599-1C1F04A4CE02}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3378,7 +3730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077CF1A1-B125-4313-8C26-BD33FD49CDA4}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3547,7 +3899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A43CE3-48F8-4708-B4B5-15D6727D3864}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -3675,148 +4027,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="53.1640625" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="3"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE088800-E5A4-482E-89E9-ED8238EFDF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABECADA-0D09-4345-ABF0-1C58BAFEA156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -260,6 +260,737 @@
 </comments>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{457968DE-AAEF-49B7-9BA2-09D2DEFEEA09}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3DD853C8-EF8F-41D5-AFB3-A098A68DD93A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C532427A-AC82-4266-A7DB-C436EEDFE314}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{12B442D2-4963-48BE-AD96-A16C13BF3022}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -547,6 +1278,1042 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B70CC672-8467-4D07-860B-D9F71C06EAF4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7032CCE0-D55E-48CF-80B1-2A2406111A02}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{EBED3AE6-9054-4B12-B947-B7DF72F165BF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A79998A0-23B8-4C63-99BA-FEE380982E92}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
@@ -756,221 +2523,8 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>최선</author>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3DD853C8-EF8F-41D5-AFB3-A098A68DD93A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeIn = 9
-FadeOut=10
-Cinematic = 11
-EndingChoice=12
-Clear = 13</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C532427A-AC82-4266-A7DB-C436EEDFE314}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="100">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1292,14 +2846,6 @@
   </si>
   <si>
     <t>002010_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>camera</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1363,7 +2909,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1402,6 +2948,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1770,7 +3329,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
@@ -1891,11 +3450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1960,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -1974,7 +3533,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -1988,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -2031,6 +3590,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2104,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -2118,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -2174,7 +3734,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2239,7 +3799,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -2363,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -2377,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
@@ -2428,7 +3988,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2493,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -2547,7 +4107,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2560,7 +4120,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
@@ -2591,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2675,11 +4235,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2691,7 +4251,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2741,10 +4301,10 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -2755,24 +4315,13 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -2813,6 +4362,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2977,7 +4527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CD7F9D-E604-418C-872C-0DB84D357BEB}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2990,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3046,7 +4596,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -3060,7 +4610,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -3074,7 +4624,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -3088,7 +4638,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -3146,7 +4696,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
@@ -3261,11 +4811,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3330,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
@@ -3344,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>39</v>
@@ -3358,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>40</v>
@@ -3372,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
@@ -3383,10 +4933,10 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>44</v>
@@ -3397,10 +4947,10 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
@@ -3411,10 +4961,10 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>42</v>
@@ -3425,10 +4975,10 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>43</v>
@@ -3442,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
@@ -3456,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>46</v>
@@ -3470,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>47</v>
@@ -3510,15 +5060,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBB5E16-BCE6-4837-83A8-0CF0F194DEC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBB5E16-BCE6-4837-83A8-0CF0F194DEC5}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3580,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>48</v>
@@ -3620,15 +5171,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763C6AD6-BD53-4A91-9599-1C1F04A4CE02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763C6AD6-BD53-4A91-9599-1C1F04A4CE02}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3690,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>49</v>
@@ -3727,15 +5279,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077CF1A1-B125-4313-8C26-BD33FD49CDA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077CF1A1-B125-4313-8C26-BD33FD49CDA4}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3800,7 +5353,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
@@ -3814,7 +5367,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
@@ -3838,7 +5391,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>54</v>
@@ -3852,7 +5405,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
@@ -3871,7 +5424,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>57</v>
@@ -3896,6 +5449,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3904,7 +5458,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3917,7 +5471,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
@@ -3948,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABECADA-0D09-4345-ABF0-1C58BAFEA156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9B18FD-9082-4C78-AF13-8B34DFCC5DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="6" activeTab="11" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -24,11 +24,12 @@
     <sheet name="002011_task" sheetId="17" r:id="rId9"/>
     <sheet name="002011" sheetId="8" r:id="rId10"/>
     <sheet name="002020_1" sheetId="9" r:id="rId11"/>
-    <sheet name="002020_2" sheetId="12" r:id="rId12"/>
-    <sheet name="002030_1" sheetId="10" r:id="rId13"/>
-    <sheet name="002030_2" sheetId="11" r:id="rId14"/>
-    <sheet name="002030_3_task" sheetId="22" r:id="rId15"/>
-    <sheet name="002030_3" sheetId="14" r:id="rId16"/>
+    <sheet name="002020_pimp" sheetId="24" r:id="rId12"/>
+    <sheet name="002020_2" sheetId="12" r:id="rId13"/>
+    <sheet name="002030_1" sheetId="10" r:id="rId14"/>
+    <sheet name="002030_2" sheetId="11" r:id="rId15"/>
+    <sheet name="002030_3_task" sheetId="22" r:id="rId16"/>
+    <sheet name="002030_3" sheetId="14" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -523,6 +524,265 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F9D93E4E-30AF-4ACF-927A-328E65CE5A8B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
@@ -732,7 +992,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -2524,7 +2784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="109">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2899,6 +3159,42 @@
   </si>
   <si>
     <t>약해 보이는데... 한 번 차볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡았다…! 어딜 도망가…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 놔…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빚도 안 갚고 어딜 도망가려고 해? 기껏 돈벌게 해줬더니 건방진 X…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 오늘 죽는 줄 알아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???는 포주들에게 끌려가다가 문득 자신이 가지고 있는 초능력이 있다는 것을 깨달았고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 초능력을 이용해서 포주들에게서 벗어나 다시 도망치기 시작했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어어? 뭐야? 어떻게 된거야? 거기 안서???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002020_pimp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3454,7 +3750,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3730,6 +4026,178 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716454B-9484-4D14-BA08-B5A4B46F4B74}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0410B-99B7-4713-80E6-B6B994BDC0E7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -3853,7 +4321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -3983,7 +4451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4102,7 +4570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF5D3A-0E1E-4C46-9D07-F45230D15113}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -4234,7 +4702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4814,7 +5282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9B18FD-9082-4C78-AF13-8B34DFCC5DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4827160-FEE9-4CA5-B512-0130A3319581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="6" activeTab="11" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="9" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -25,11 +25,13 @@
     <sheet name="002011" sheetId="8" r:id="rId10"/>
     <sheet name="002020_1" sheetId="9" r:id="rId11"/>
     <sheet name="002020_pimp" sheetId="24" r:id="rId12"/>
-    <sheet name="002020_2" sheetId="12" r:id="rId13"/>
-    <sheet name="002030_1" sheetId="10" r:id="rId14"/>
-    <sheet name="002030_2" sheetId="11" r:id="rId15"/>
-    <sheet name="002030_3_task" sheetId="22" r:id="rId16"/>
-    <sheet name="002030_3" sheetId="14" r:id="rId17"/>
+    <sheet name="002020_2_task" sheetId="25" r:id="rId13"/>
+    <sheet name="002020_2" sheetId="12" r:id="rId14"/>
+    <sheet name="002020_3" sheetId="26" r:id="rId15"/>
+    <sheet name="002030_1" sheetId="10" r:id="rId16"/>
+    <sheet name="002030_2" sheetId="11" r:id="rId17"/>
+    <sheet name="002030_3_task" sheetId="22" r:id="rId18"/>
+    <sheet name="002030_3" sheetId="14" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -786,7 +788,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3DD853C8-EF8F-41D5-AFB3-A098A68DD93A}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CB6F281D-C246-49D5-AFC9-91AB3699FDCB}">
       <text>
         <r>
           <rPr>
@@ -813,7 +815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C532427A-AC82-4266-A7DB-C436EEDFE314}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{FFF01A61-3A49-461F-B163-A1527E3EEE53}">
       <text>
         <r>
           <rPr>
@@ -993,6 +995,219 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3DD853C8-EF8F-41D5-AFB3-A098A68DD93A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C532427A-AC82-4266-A7DB-C436EEDFE314}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -2784,7 +2999,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="111">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2901,10 +3116,6 @@
     <t>헉헉... 대충 따돌린 것 같아...?</t>
   </si>
   <si>
-    <t>(하수구 속에 빠지며) 으아아악!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002020_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3196,6 +3407,15 @@
   <si>
     <t>002020_pimp</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002020_2_task</t>
+  </si>
+  <si>
+    <t>으아아악!!</t>
+  </si>
+  <si>
+    <t>002020_3</t>
   </si>
 </sst>
 </file>
@@ -3611,7 +3831,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3625,30 +3845,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -3656,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -3673,22 +3893,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -3701,13 +3921,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3750,7 +3970,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3762,7 +3982,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3773,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3801,7 +4021,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3815,7 +4035,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -3829,7 +4049,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -3843,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -3907,7 +4127,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3918,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3946,7 +4166,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3960,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -3974,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -4029,7 +4249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716454B-9484-4D14-BA08-B5A4B46F4B74}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -4042,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4053,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4081,7 +4301,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4089,16 +4309,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -4109,65 +4329,65 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -4198,6 +4418,139 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6577F98C-1A7C-4CE1-96C6-A5B5AC69F2AB}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.58203125" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0410B-99B7-4713-80E6-B6B994BDC0E7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4214,7 +4567,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4225,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4253,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4267,19 +4620,14 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E7" s="1"/>
@@ -4321,7 +4669,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2843DAED-6C4A-4526-86D1-1511FE10088B}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4338,7 +4805,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4349,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4377,7 +4844,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4391,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -4405,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
@@ -4451,7 +4918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4468,7 +4935,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4479,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4507,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4521,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -4570,12 +5037,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF5D3A-0E1E-4C46-9D07-F45230D15113}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4588,30 +5055,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -4619,13 +5086,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -4636,22 +5103,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -4702,7 +5169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4719,7 +5186,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4730,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4758,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4772,7 +5239,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -4786,7 +5253,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -4839,7 +5306,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4862,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4890,7 +5357,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4901,10 +5368,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -4915,10 +5382,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -4929,10 +5396,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -4996,7 +5463,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5008,7 +5475,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -5019,7 +5486,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5047,7 +5514,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5061,10 +5528,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -5075,10 +5542,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -5089,10 +5556,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -5103,10 +5570,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -5149,7 +5616,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5164,30 +5631,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -5195,13 +5662,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -5212,22 +5679,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -5283,7 +5750,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5295,7 +5762,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5306,7 +5773,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5334,7 +5801,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5348,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5362,10 +5829,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -5376,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -5390,10 +5857,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -5404,10 +5871,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -5418,10 +5885,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -5432,10 +5899,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -5446,10 +5913,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -5460,10 +5927,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -5474,10 +5941,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -5488,10 +5955,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -5549,7 +6016,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5560,7 +6027,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5588,7 +6055,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5599,10 +6066,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5660,7 +6127,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5671,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5699,7 +6166,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5710,10 +6177,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -5768,7 +6235,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5779,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5807,7 +6274,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5821,10 +6288,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5835,20 +6302,20 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -5859,10 +6326,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -5873,15 +6340,15 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -5892,10 +6359,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -5939,30 +6406,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -5970,13 +6437,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -5987,33 +6454,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABECADA-0D09-4345-ABF0-1C58BAFEA156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4827160-FEE9-4CA5-B512-0130A3319581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="3" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="9" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -24,11 +24,14 @@
     <sheet name="002011_task" sheetId="17" r:id="rId9"/>
     <sheet name="002011" sheetId="8" r:id="rId10"/>
     <sheet name="002020_1" sheetId="9" r:id="rId11"/>
-    <sheet name="002020_2" sheetId="12" r:id="rId12"/>
-    <sheet name="002030_1" sheetId="10" r:id="rId13"/>
-    <sheet name="002030_2" sheetId="11" r:id="rId14"/>
-    <sheet name="002030_3_task" sheetId="22" r:id="rId15"/>
-    <sheet name="002030_3" sheetId="14" r:id="rId16"/>
+    <sheet name="002020_pimp" sheetId="24" r:id="rId12"/>
+    <sheet name="002020_2_task" sheetId="25" r:id="rId13"/>
+    <sheet name="002020_2" sheetId="12" r:id="rId14"/>
+    <sheet name="002020_3" sheetId="26" r:id="rId15"/>
+    <sheet name="002030_1" sheetId="10" r:id="rId16"/>
+    <sheet name="002030_2" sheetId="11" r:id="rId17"/>
+    <sheet name="002030_3_task" sheetId="22" r:id="rId18"/>
+    <sheet name="002030_3" sheetId="14" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -523,10 +526,269 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F9D93E4E-30AF-4ACF-927A-328E65CE5A8B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3DD853C8-EF8F-41D5-AFB3-A098A68DD93A}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CB6F281D-C246-49D5-AFC9-91AB3699FDCB}">
       <text>
         <r>
           <rPr>
@@ -553,7 +815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C532427A-AC82-4266-A7DB-C436EEDFE314}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{FFF01A61-3A49-461F-B163-A1527E3EEE53}">
       <text>
         <r>
           <rPr>
@@ -732,7 +994,220 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3DD853C8-EF8F-41D5-AFB3-A098A68DD93A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C532427A-AC82-4266-A7DB-C436EEDFE314}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -2524,7 +2999,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="111">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2641,10 +3116,6 @@
     <t>헉헉... 대충 따돌린 것 같아...?</t>
   </si>
   <si>
-    <t>(하수구 속에 빠지며) 으아아악!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002020_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2900,6 +3371,51 @@
   <si>
     <t>약해 보이는데... 한 번 차볼까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡았다…! 어딜 도망가…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 놔…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빚도 안 갚고 어딜 도망가려고 해? 기껏 돈벌게 해줬더니 건방진 X…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 오늘 죽는 줄 알아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???는 포주들에게 끌려가다가 문득 자신이 가지고 있는 초능력이 있다는 것을 깨달았고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 초능력을 이용해서 포주들에게서 벗어나 다시 도망치기 시작했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어어? 뭐야? 어떻게 된거야? 거기 안서???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002020_pimp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002020_2_task</t>
+  </si>
+  <si>
+    <t>으아아악!!</t>
+  </si>
+  <si>
+    <t>002020_3</t>
   </si>
 </sst>
 </file>
@@ -3315,7 +3831,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3329,30 +3845,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -3360,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -3377,22 +3893,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -3405,13 +3921,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3454,7 +3970,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3466,7 +3982,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3477,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3505,7 +4021,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3519,7 +4035,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -3533,7 +4049,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -3547,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -3611,7 +4127,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3622,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3650,7 +4166,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3664,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
@@ -3678,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -3730,6 +4246,311 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716454B-9484-4D14-BA08-B5A4B46F4B74}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6577F98C-1A7C-4CE1-96C6-A5B5AC69F2AB}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.58203125" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0410B-99B7-4713-80E6-B6B994BDC0E7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -3746,7 +4567,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3757,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3785,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3799,19 +4620,14 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E7" s="1"/>
@@ -3853,7 +4669,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2843DAED-6C4A-4526-86D1-1511FE10088B}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -3870,7 +4805,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3881,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3909,7 +4844,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3923,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -3937,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
@@ -3983,7 +4918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4000,7 +4935,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4011,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4039,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4053,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -4102,12 +5037,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF5D3A-0E1E-4C46-9D07-F45230D15113}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4120,30 +5055,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -4151,13 +5086,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -4168,22 +5103,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -4234,7 +5169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4251,7 +5186,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4262,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4290,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4304,7 +5239,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -4318,7 +5253,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -4371,7 +5306,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4394,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4422,7 +5357,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4433,10 +5368,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -4447,10 +5382,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -4461,10 +5396,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -4528,7 +5463,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4540,7 +5475,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4551,7 +5486,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4579,7 +5514,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4593,10 +5528,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -4607,10 +5542,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -4621,10 +5556,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -4635,10 +5570,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -4681,7 +5616,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4696,30 +5631,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -4727,13 +5662,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -4744,22 +5679,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -4814,8 +5749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4827,7 +5762,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4838,7 +5773,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4866,7 +5801,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4880,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -4894,10 +5829,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4908,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -4922,10 +5857,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4936,10 +5871,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4950,10 +5885,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -4964,10 +5899,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -4978,10 +5913,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -4992,10 +5927,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -5006,10 +5941,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -5020,10 +5955,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -5081,7 +6016,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5092,7 +6027,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5120,7 +6055,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5131,10 +6066,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5192,7 +6127,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5203,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5231,7 +6166,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5242,10 +6177,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -5300,7 +6235,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5311,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5339,7 +6274,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5353,10 +6288,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5367,20 +6302,20 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -5391,10 +6326,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -5405,15 +6340,15 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -5424,10 +6359,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -5471,30 +6406,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -5502,13 +6437,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -5519,33 +6454,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,30 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4827160-FEE9-4CA5-B512-0130A3319581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4786411-91D6-476E-BA4F-56384A77AAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="9" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="7" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
     <sheet name="001010" sheetId="2" r:id="rId2"/>
     <sheet name="001010_1" sheetId="23" r:id="rId3"/>
-    <sheet name="002010_task" sheetId="16" r:id="rId4"/>
-    <sheet name="002010_1" sheetId="13" r:id="rId5"/>
-    <sheet name="002010_2" sheetId="18" r:id="rId6"/>
-    <sheet name="002010_3" sheetId="20" r:id="rId7"/>
-    <sheet name="002010_4" sheetId="19" r:id="rId8"/>
-    <sheet name="002011_task" sheetId="17" r:id="rId9"/>
-    <sheet name="002011" sheetId="8" r:id="rId10"/>
-    <sheet name="002020_1" sheetId="9" r:id="rId11"/>
-    <sheet name="002020_pimp" sheetId="24" r:id="rId12"/>
-    <sheet name="002020_2_task" sheetId="25" r:id="rId13"/>
-    <sheet name="002020_2" sheetId="12" r:id="rId14"/>
-    <sheet name="002020_3" sheetId="26" r:id="rId15"/>
-    <sheet name="002030_1" sheetId="10" r:id="rId16"/>
-    <sheet name="002030_2" sheetId="11" r:id="rId17"/>
-    <sheet name="002030_3_task" sheetId="22" r:id="rId18"/>
-    <sheet name="002030_3" sheetId="14" r:id="rId19"/>
+    <sheet name="001010_interact01" sheetId="27" r:id="rId4"/>
+    <sheet name="001010_interact02" sheetId="28" r:id="rId5"/>
+    <sheet name="001010_interact03" sheetId="29" r:id="rId6"/>
+    <sheet name="001010_interact04" sheetId="30" r:id="rId7"/>
+    <sheet name="002010_task" sheetId="16" r:id="rId8"/>
+    <sheet name="002010_1" sheetId="13" r:id="rId9"/>
+    <sheet name="002010_2" sheetId="18" r:id="rId10"/>
+    <sheet name="002010_3" sheetId="20" r:id="rId11"/>
+    <sheet name="002010_4" sheetId="19" r:id="rId12"/>
+    <sheet name="002011_task" sheetId="17" r:id="rId13"/>
+    <sheet name="002011" sheetId="8" r:id="rId14"/>
+    <sheet name="002020_1" sheetId="9" r:id="rId15"/>
+    <sheet name="002020_pimp" sheetId="24" r:id="rId16"/>
+    <sheet name="002020_2_task" sheetId="25" r:id="rId17"/>
+    <sheet name="002020_2" sheetId="12" r:id="rId18"/>
+    <sheet name="002020_3" sheetId="26" r:id="rId19"/>
+    <sheet name="002030_1" sheetId="10" r:id="rId20"/>
+    <sheet name="002030_2" sheetId="11" r:id="rId21"/>
+    <sheet name="002030_3_task" sheetId="22" r:id="rId22"/>
+    <sheet name="002030_3" sheetId="14" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -269,7 +273,7 @@
     <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{457968DE-AAEF-49B7-9BA2-09D2DEFEEA09}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7032CCE0-D55E-48CF-80B1-2A2406111A02}">
       <text>
         <r>
           <rPr>
@@ -528,7 +532,7 @@
     <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F9D93E4E-30AF-4ACF-927A-328E65CE5A8B}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{EBED3AE6-9054-4B12-B947-B7DF72F165BF}">
       <text>
         <r>
           <rPr>
@@ -785,10 +789,269 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A79998A0-23B8-4C63-99BA-FEE380982E92}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CB6F281D-C246-49D5-AFC9-91AB3699FDCB}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E1954F47-6EE0-4021-B84B-8F0940825C54}">
       <text>
         <r>
           <rPr>
@@ -815,7 +1078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{FFF01A61-3A49-461F-B163-A1527E3EEE53}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{736FCAF6-13BC-45AA-BF81-9D755C389026}">
       <text>
         <r>
           <rPr>
@@ -994,14 +1257,532 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{457968DE-AAEF-49B7-9BA2-09D2DEFEEA09}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F9D93E4E-30AF-4ACF-927A-328E65CE5A8B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예민한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>슬픈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>놀란</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패닉
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">표정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3DD853C8-EF8F-41D5-AFB3-A098A68DD93A}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CB6F281D-C246-49D5-AFC9-91AB3699FDCB}">
       <text>
         <r>
           <rPr>
@@ -1028,7 +1809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C532427A-AC82-4266-A7DB-C436EEDFE314}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{FFF01A61-3A49-461F-B163-A1527E3EEE53}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1988,220 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3DD853C8-EF8F-41D5-AFB3-A098A68DD93A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C532427A-AC82-4266-A7DB-C436EEDFE314}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -1539,6 +2533,146 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{49F4793A-933D-4861-B358-37DA08870028}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C905A98A-B2D0-4610-B66A-CA12D9486418}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5E025E1F-5672-44BC-BA51-74EE71257FE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{18743A23-3EE1-4573-BF0D-102B36AED0FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>최선</author>
     <author>훠이</author>
   </authors>
@@ -1749,7 +2883,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -2008,998 +3142,8 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>최선</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7032CCE0-D55E-48CF-80B1-2A2406111A02}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">기본
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>화난</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예민한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>슬픈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>놀란</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">액션
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">패닉
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>우는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>최선</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{EBED3AE6-9054-4B12-B947-B7DF72F165BF}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">기본
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>화난</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예민한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>슬픈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>놀란</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">액션
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">패닉
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>우는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>최선</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A79998A0-23B8-4C63-99BA-FEE380982E92}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">기본
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>화난</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>예민한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>슬픈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>놀란</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">액션
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">패닉
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>우는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">표정
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>최선</author>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E1954F47-6EE0-4021-B84B-8F0940825C54}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeIn = 9
-FadeOut=10
-Cinematic = 11
-EndingChoice=12
-Clear = 13</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{736FCAF6-13BC-45AA-BF81-9D755C389026}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="120">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3416,6 +3560,42 @@
   </si>
   <si>
     <t>002020_3</t>
+  </si>
+  <si>
+    <t>001010_interact01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001010_interact02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001010_interact03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히익!, 여기에 왜 무덤이 있는거야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 뭐야…? 왜 화살이 있는건데…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덫이 왜이렇게 커..? 들짐승을 잡으려는거겠지…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001010_interact04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불이 켜져있어…누가 최근까지 있던걸까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도대체 뭘 잡으려고 여기에서 불을 지피고 기다리는 걸까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3966,6 +4146,525 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBB5E16-BCE6-4837-83A8-0CF0F194DEC5}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763C6AD6-BD53-4A91-9599-1C1F04A4CE02}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077CF1A1-B125-4313-8C26-BD33FD49CDA4}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A43CE3-48F8-4708-B4B5-15D6727D3864}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4110,7 +4809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D8B40-A471-417D-A811-DD055E62FB38}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4245,7 +4944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716454B-9484-4D14-BA08-B5A4B46F4B74}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4417,11 +5116,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6577F98C-1A7C-4CE1-96C6-A5B5AC69F2AB}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4550,7 +5249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0410B-99B7-4713-80E6-B6B994BDC0E7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4669,7 +5368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2843DAED-6C4A-4526-86D1-1511FE10088B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4785,519 +5484,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF5D3A-0E1E-4C46-9D07-F45230D15113}">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5430,6 +5616,519 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCAD07-2A0E-4763-A06C-AEF4838FA08B}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D03DFD-04FF-49B1-A1C2-B442B1027B55}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF5D3A-0E1E-4C46-9D07-F45230D15113}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -5612,11 +6311,502 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9305843D-014E-466D-843B-579AA6CA44F2}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB70D791-C529-4B45-85A0-CBE322CCD945}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E227D6-AE2A-4126-8A24-0FA092EB0628}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F748B-C9A1-4F7D-98C7-83466B5391F8}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D28CD64-A0F2-4C1A-95CD-2A75FA319E90}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5745,7 +6935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -5997,523 +7187,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBB5E16-BCE6-4837-83A8-0CF0F194DEC5}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D15" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763C6AD6-BD53-4A91-9599-1C1F04A4CE02}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D15" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077CF1A1-B125-4313-8C26-BD33FD49CDA4}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="67.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A43CE3-48F8-4708-B4B5-15D6727D3864}">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="60.58203125" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4786411-91D6-476E-BA4F-56384A77AAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D023FA-C361-4495-8C74-CFF138681AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="7" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="10520" yWindow="510" windowWidth="13460" windowHeight="10060" firstSheet="9" activeTab="9" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -791,7 +791,7 @@
     <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A79998A0-23B8-4C63-99BA-FEE380982E92}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D7622E55-0A85-40A1-A635-224902A90DF5}">
       <text>
         <r>
           <rPr>
@@ -4149,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBB5E16-BCE6-4837-83A8-0CF0F194DEC5}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4261,7 +4261,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4369,7 +4369,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4483,7 +4483,7 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
@@ -4502,7 +4502,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
@@ -6805,7 +6805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D28CD64-A0F2-4C1A-95CD-2A75FA319E90}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6939,7 +6939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51F5BB-4798-4887-95FF-B169D0EB787A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep00/ep00.xlsx
+++ b/Excel2Json/bin/ep00/ep00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D023FA-C361-4495-8C74-CFF138681AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61927BB8-6953-41BE-95FB-692F91FBD631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="510" windowWidth="13460" windowHeight="10060" firstSheet="9" activeTab="9" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="15" activeTab="22" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="001010_task" sheetId="15" r:id="rId1"/>
@@ -4149,7 +4149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBB5E16-BCE6-4837-83A8-0CF0F194DEC5}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5254,7 +5254,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5316,7 +5316,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
@@ -5373,7 +5373,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5435,7 +5435,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
@@ -6029,8 +6029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30E00E-1A2F-4A71-B81B-26375E330124}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
